--- a/Calypso/src/assets/Simulated Data.xlsx
+++ b/Calypso/src/assets/Simulated Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manu_\OneDrive\Desktop\GE_project\bca_demo\Calypso\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72188938-345E-4EBE-B454-74D07B16CC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB1BE44-B5E0-4DE9-8966-367648838FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,10 +353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L289"/>
+  <dimension ref="A1:M289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G268" workbookViewId="0">
-      <selection activeCell="J287" sqref="J287:L289"/>
+    <sheetView tabSelected="1" topLeftCell="C200" workbookViewId="0">
+      <selection activeCell="M227" sqref="M227:M289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -373,9 +373,10 @@
     <col min="10" max="10" width="27.85546875" customWidth="1"/>
     <col min="11" max="11" width="23.42578125" customWidth="1"/>
     <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,8 +413,11 @@
       <c r="L1" s="2">
         <v>45616</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="2">
+        <v>45617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -450,8 +454,11 @@
       <c r="L2">
         <v>0.80379999999999996</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>0.79569999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3.472222222222222E-3</v>
       </c>
@@ -488,8 +495,11 @@
       <c r="L3">
         <v>0.6119</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>0.53320000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>6.9444444444444441E-3</v>
       </c>
@@ -526,8 +536,11 @@
       <c r="L4">
         <v>0.63060000000000005</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>0.6613</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -564,8 +577,11 @@
       <c r="L5">
         <v>0.78439999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>0.81269999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1.3888888888888888E-2</v>
       </c>
@@ -602,8 +618,11 @@
       <c r="L6">
         <v>0.61370000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>0.64270000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1.7361111111111112E-2</v>
       </c>
@@ -640,8 +659,11 @@
       <c r="L7">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>0.66849999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -678,8 +700,11 @@
       <c r="L8">
         <v>0.50549999999999995</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>0.63939999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2.4305555555555556E-2</v>
       </c>
@@ -716,8 +741,11 @@
       <c r="L9">
         <v>0.51490000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>0.61399999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2.7777777777777776E-2</v>
       </c>
@@ -754,8 +782,11 @@
       <c r="L10">
         <v>0.53410000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>0.7026</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3.125E-2</v>
       </c>
@@ -792,8 +823,11 @@
       <c r="L11">
         <v>0.47649999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>0.79479999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3.4722222222222224E-2</v>
       </c>
@@ -830,8 +864,11 @@
       <c r="L12">
         <v>0.72609999999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>0.75960000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3.8194444444444448E-2</v>
       </c>
@@ -868,8 +905,11 @@
       <c r="L13">
         <v>0.68359999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>0.56510000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -906,8 +946,11 @@
       <c r="L14">
         <v>0.64859999999999995</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>0.76529999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>4.5138888888888888E-2</v>
       </c>
@@ -944,8 +987,11 @@
       <c r="L15">
         <v>0.67420000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>0.68700000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>4.8611111111111112E-2</v>
       </c>
@@ -982,8 +1028,11 @@
       <c r="L16">
         <v>0.48299999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>0.67859999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -1020,8 +1069,11 @@
       <c r="L17">
         <v>0.57669999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>0.48680000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>5.5555555555555552E-2</v>
       </c>
@@ -1058,8 +1110,11 @@
       <c r="L18">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>0.76449999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>5.9027777777777776E-2</v>
       </c>
@@ -1096,8 +1151,11 @@
       <c r="L19">
         <v>0.50919999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>0.6825</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>6.25E-2</v>
       </c>
@@ -1134,8 +1192,11 @@
       <c r="L20">
         <v>0.50670000000000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>0.53859999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>6.5972222222222224E-2</v>
       </c>
@@ -1172,8 +1233,11 @@
       <c r="L21">
         <v>0.68679999999999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>0.80359999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>6.9444444444444448E-2</v>
       </c>
@@ -1210,8 +1274,11 @@
       <c r="L22">
         <v>0.59540000000000004</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>0.66410000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>7.2916666666666671E-2</v>
       </c>
@@ -1248,8 +1315,11 @@
       <c r="L23">
         <v>0.78820000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>0.56340000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>7.6388888888888895E-2</v>
       </c>
@@ -1286,8 +1356,11 @@
       <c r="L24">
         <v>0.66510000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>0.63019999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>7.9861111111111105E-2</v>
       </c>
@@ -1324,8 +1397,11 @@
       <c r="L25">
         <v>0.4758</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>0.48909999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -1362,8 +1438,11 @@
       <c r="L26">
         <v>0.76060000000000005</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>0.76400000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>8.6805555555555552E-2</v>
       </c>
@@ -1400,8 +1479,11 @@
       <c r="L27">
         <v>0.68210000000000004</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>0.47589999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>9.0277777777777776E-2</v>
       </c>
@@ -1438,8 +1520,11 @@
       <c r="L28">
         <v>0.53069999999999995</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>0.6865</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>9.375E-2</v>
       </c>
@@ -1476,8 +1561,11 @@
       <c r="L29">
         <v>0.56069999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>0.68220000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>9.7222222222222224E-2</v>
       </c>
@@ -1514,8 +1602,11 @@
       <c r="L30">
         <v>0.50470000000000004</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>0.64490000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.10069444444444445</v>
       </c>
@@ -1552,8 +1643,11 @@
       <c r="L31">
         <v>0.76790000000000003</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>0.79349999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.10416666666666667</v>
       </c>
@@ -1590,8 +1684,11 @@
       <c r="L32">
         <v>0.64500000000000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>0.79610000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.1076388888888889</v>
       </c>
@@ -1628,8 +1725,11 @@
       <c r="L33">
         <v>0.73099999999999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>0.56710000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.1111111111111111</v>
       </c>
@@ -1666,8 +1766,11 @@
       <c r="L34">
         <v>0.54169999999999996</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>0.4556</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0.11458333333333333</v>
       </c>
@@ -1704,8 +1807,11 @@
       <c r="L35">
         <v>0.53459999999999996</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>0.56730000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0.11805555555555555</v>
       </c>
@@ -1742,8 +1848,11 @@
       <c r="L36">
         <v>0.7258</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <v>0.73880000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.12152777777777778</v>
       </c>
@@ -1780,8 +1889,11 @@
       <c r="L37">
         <v>0.4456</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>0.67120000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0.125</v>
       </c>
@@ -1818,8 +1930,11 @@
       <c r="L38">
         <v>0.80379999999999996</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>0.79569999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0.12847222222222221</v>
       </c>
@@ -1856,8 +1971,11 @@
       <c r="L39">
         <v>0.6119</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>0.53320000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0.13194444444444445</v>
       </c>
@@ -1894,8 +2012,11 @@
       <c r="L40">
         <v>0.63060000000000005</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>0.6613</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0.13541666666666666</v>
       </c>
@@ -1932,8 +2053,11 @@
       <c r="L41">
         <v>0.78439999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>0.81269999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0.1388888888888889</v>
       </c>
@@ -1970,8 +2094,11 @@
       <c r="L42">
         <v>0.61370000000000002</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>0.64270000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0.1423611111111111</v>
       </c>
@@ -2008,8 +2135,11 @@
       <c r="L43">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <v>0.66849999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0.14583333333333334</v>
       </c>
@@ -2046,8 +2176,11 @@
       <c r="L44">
         <v>0.50549999999999995</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>0.63939999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>0.14930555555555555</v>
       </c>
@@ -2084,8 +2217,11 @@
       <c r="L45">
         <v>0.51490000000000002</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <v>0.61399999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>0.15277777777777779</v>
       </c>
@@ -2122,8 +2258,11 @@
       <c r="L46">
         <v>0.53410000000000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>0.7026</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>0.15625</v>
       </c>
@@ -2160,8 +2299,11 @@
       <c r="L47">
         <v>0.47649999999999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>0.79479999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0.15972222222222221</v>
       </c>
@@ -2198,8 +2340,11 @@
       <c r="L48">
         <v>0.72609999999999997</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <v>0.75960000000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0.16319444444444445</v>
       </c>
@@ -2236,8 +2381,11 @@
       <c r="L49">
         <v>0.68359999999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <v>0.56510000000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -2274,8 +2422,11 @@
       <c r="L50">
         <v>0.64859999999999995</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <v>0.76529999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>0.1701388888888889</v>
       </c>
@@ -2312,8 +2463,11 @@
       <c r="L51">
         <v>0.67420000000000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <v>0.68700000000000006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>0.1736111111111111</v>
       </c>
@@ -2350,8 +2504,11 @@
       <c r="L52">
         <v>0.48299999999999998</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <v>0.67859999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>0.17708333333333334</v>
       </c>
@@ -2388,8 +2545,11 @@
       <c r="L53">
         <v>0.57669999999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <v>0.48680000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>0.18055555555555555</v>
       </c>
@@ -2426,8 +2586,11 @@
       <c r="L54">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <v>0.76449999999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>0.18402777777777779</v>
       </c>
@@ -2464,8 +2627,11 @@
       <c r="L55">
         <v>0.50919999999999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <v>0.6825</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>0.1875</v>
       </c>
@@ -2502,8 +2668,11 @@
       <c r="L56">
         <v>0.50670000000000004</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <v>0.53859999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>0.19097222222222221</v>
       </c>
@@ -2540,8 +2709,11 @@
       <c r="L57">
         <v>0.68679999999999997</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <v>0.80359999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>0.19444444444444445</v>
       </c>
@@ -2578,8 +2750,11 @@
       <c r="L58">
         <v>0.59540000000000004</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <v>0.66410000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>0.19791666666666666</v>
       </c>
@@ -2616,8 +2791,11 @@
       <c r="L59">
         <v>0.78820000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <v>0.56340000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>0.2013888888888889</v>
       </c>
@@ -2654,8 +2832,11 @@
       <c r="L60">
         <v>0.66510000000000002</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <v>0.63019999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>0.2048611111111111</v>
       </c>
@@ -2692,8 +2873,11 @@
       <c r="L61">
         <v>0.4758</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <v>0.48909999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -2730,8 +2914,11 @@
       <c r="L62">
         <v>0.76060000000000005</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <v>0.76400000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>0.21180555555555555</v>
       </c>
@@ -2768,8 +2955,11 @@
       <c r="L63">
         <v>0.68210000000000004</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <v>0.47589999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>0.21527777777777779</v>
       </c>
@@ -2806,8 +2996,11 @@
       <c r="L64">
         <v>0.53069999999999995</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64">
+        <v>0.6865</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>0.21875</v>
       </c>
@@ -2844,8 +3037,11 @@
       <c r="L65">
         <v>0.56069999999999998</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <v>0.68220000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>0.22222222222222221</v>
       </c>
@@ -2882,8 +3078,11 @@
       <c r="L66">
         <v>0.50470000000000004</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <v>0.64490000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>0.22569444444444445</v>
       </c>
@@ -2920,8 +3119,11 @@
       <c r="L67">
         <v>0.76790000000000003</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <v>0.79349999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>0.22916666666666666</v>
       </c>
@@ -2958,8 +3160,11 @@
       <c r="L68">
         <v>0.64500000000000002</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <v>0.79610000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>0.2326388888888889</v>
       </c>
@@ -2996,8 +3201,11 @@
       <c r="L69">
         <v>0.73099999999999998</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <v>0.56710000000000005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>0.2361111111111111</v>
       </c>
@@ -3034,8 +3242,11 @@
       <c r="L70">
         <v>0.54169999999999996</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70">
+        <v>0.4556</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>0.23958333333333334</v>
       </c>
@@ -3072,8 +3283,11 @@
       <c r="L71">
         <v>0.53459999999999996</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71">
+        <v>0.56730000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>0.24305555555555555</v>
       </c>
@@ -3110,8 +3324,11 @@
       <c r="L72">
         <v>0.7258</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72">
+        <v>0.73880000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>0.24652777777777779</v>
       </c>
@@ -3148,8 +3365,11 @@
       <c r="L73">
         <v>0.4456</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73">
+        <v>0.67120000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>0.25</v>
       </c>
@@ -3186,8 +3406,11 @@
       <c r="L74">
         <v>0.80379999999999996</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74">
+        <v>0.79569999999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>0.25347222222222221</v>
       </c>
@@ -3224,8 +3447,11 @@
       <c r="L75">
         <v>0.6119</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75">
+        <v>0.53320000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>0.25694444444444442</v>
       </c>
@@ -3262,8 +3488,11 @@
       <c r="L76">
         <v>0.63060000000000005</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M76">
+        <v>0.6613</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>0.26041666666666669</v>
       </c>
@@ -3300,8 +3529,11 @@
       <c r="L77">
         <v>0.78439999999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77">
+        <v>0.81269999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>0.2638888888888889</v>
       </c>
@@ -3338,8 +3570,11 @@
       <c r="L78">
         <v>0.61370000000000002</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78">
+        <v>0.64270000000000005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>0.2673611111111111</v>
       </c>
@@ -3376,8 +3611,11 @@
       <c r="L79">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79">
+        <v>0.66849999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>0.27083333333333331</v>
       </c>
@@ -3414,8 +3652,11 @@
       <c r="L80">
         <v>0.50549999999999995</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80">
+        <v>0.63939999999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>0.27430555555555558</v>
       </c>
@@ -3452,8 +3693,11 @@
       <c r="L81">
         <v>0.51490000000000002</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81">
+        <v>0.61399999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>0.27777777777777779</v>
       </c>
@@ -3490,8 +3734,11 @@
       <c r="L82">
         <v>0.53410000000000002</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M82">
+        <v>0.7026</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>0.28125</v>
       </c>
@@ -3528,8 +3775,11 @@
       <c r="L83">
         <v>0.47649999999999998</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M83">
+        <v>0.79479999999999995</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>0.28472222222222221</v>
       </c>
@@ -3566,8 +3816,11 @@
       <c r="L84">
         <v>0.72609999999999997</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M84">
+        <v>0.75960000000000005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>0.28819444444444442</v>
       </c>
@@ -3604,8 +3857,11 @@
       <c r="L85">
         <v>0.68359999999999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M85">
+        <v>0.56510000000000005</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -3642,8 +3898,11 @@
       <c r="L86">
         <v>0.64859999999999995</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M86">
+        <v>0.76529999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>0.2951388888888889</v>
       </c>
@@ -3680,8 +3939,11 @@
       <c r="L87">
         <v>0.67420000000000002</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M87">
+        <v>0.68700000000000006</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>0.2986111111111111</v>
       </c>
@@ -3718,8 +3980,11 @@
       <c r="L88">
         <v>0.48299999999999998</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M88">
+        <v>0.67859999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>0.30208333333333331</v>
       </c>
@@ -3756,8 +4021,11 @@
       <c r="L89">
         <v>0.57669999999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M89">
+        <v>0.48680000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>0.30555555555555558</v>
       </c>
@@ -3794,8 +4062,11 @@
       <c r="L90">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M90">
+        <v>0.76449999999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>0.30902777777777779</v>
       </c>
@@ -3832,8 +4103,11 @@
       <c r="L91">
         <v>0.50919999999999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M91">
+        <v>0.5413</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>0.3125</v>
       </c>
@@ -3870,8 +4144,11 @@
       <c r="L92">
         <v>0.50670000000000004</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M92">
+        <v>0.5887</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>0.31597222222222221</v>
       </c>
@@ -3908,8 +4185,11 @@
       <c r="L93">
         <v>0.68679999999999997</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M93">
+        <v>0.68759999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>0.31944444444444442</v>
       </c>
@@ -3946,8 +4226,11 @@
       <c r="L94">
         <v>0.59540000000000004</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M94">
+        <v>0.76959999999999995</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>0.32291666666666669</v>
       </c>
@@ -3984,8 +4267,11 @@
       <c r="L95">
         <v>0.78820000000000001</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M95">
+        <v>0.46139999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>0.3263888888888889</v>
       </c>
@@ -4022,8 +4308,11 @@
       <c r="L96">
         <v>0.66510000000000002</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M96">
+        <v>0.71440000000000003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>0.3298611111111111</v>
       </c>
@@ -4060,8 +4349,11 @@
       <c r="L97">
         <v>0.4758</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M97">
+        <v>0.6623</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -4098,8 +4390,11 @@
       <c r="L98">
         <v>0.76060000000000005</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M98">
+        <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>0.33680555555555558</v>
       </c>
@@ -4136,8 +4431,11 @@
       <c r="L99">
         <v>0.68210000000000004</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M99">
+        <v>0.44900000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>0.34027777777777779</v>
       </c>
@@ -4174,8 +4472,11 @@
       <c r="L100">
         <v>0.53069999999999995</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M100">
+        <v>0.80020000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>0.34375</v>
       </c>
@@ -4212,8 +4513,11 @@
       <c r="L101">
         <v>0.56069999999999998</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M101">
+        <v>0.48430000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>0.34722222222222221</v>
       </c>
@@ -4250,8 +4554,11 @@
       <c r="L102">
         <v>0.50470000000000004</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M102">
+        <v>0.47520000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>0.35069444444444442</v>
       </c>
@@ -4288,8 +4595,11 @@
       <c r="L103">
         <v>0.76790000000000003</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M103">
+        <v>0.49619999999999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>0.35416666666666669</v>
       </c>
@@ -4326,8 +4636,11 @@
       <c r="L104">
         <v>0.64500000000000002</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M104">
+        <v>0.62739999999999996</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>0.3576388888888889</v>
       </c>
@@ -4364,8 +4677,11 @@
       <c r="L105">
         <v>0.73099999999999998</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M105">
+        <v>0.73729999999999996</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>0.3611111111111111</v>
       </c>
@@ -4402,8 +4718,11 @@
       <c r="L106">
         <v>0.54169999999999996</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M106">
+        <v>0.73240000000000005</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>0.36458333333333331</v>
       </c>
@@ -4440,8 +4759,11 @@
       <c r="L107">
         <v>0.53459999999999996</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M107">
+        <v>0.49430000000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>0.36805555555555558</v>
       </c>
@@ -4478,8 +4800,11 @@
       <c r="L108">
         <v>0.7258</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M108">
+        <v>0.47639999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>0.37152777777777779</v>
       </c>
@@ -4516,8 +4841,11 @@
       <c r="L109">
         <v>0.4456</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M109">
+        <v>0.71960000000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>0.375</v>
       </c>
@@ -4554,8 +4882,11 @@
       <c r="L110">
         <v>0.80379999999999996</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M110">
+        <v>0.50900000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>0.37847222222222221</v>
       </c>
@@ -4592,8 +4923,11 @@
       <c r="L111">
         <v>0.6119</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M111">
+        <v>0.54859999999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>0.38194444444444442</v>
       </c>
@@ -4630,8 +4964,11 @@
       <c r="L112">
         <v>0.63060000000000005</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M112">
+        <v>0.74370000000000003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>0.38541666666666669</v>
       </c>
@@ -4668,8 +5005,11 @@
       <c r="L113">
         <v>0.78439999999999999</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M113">
+        <v>0.77969999999999995</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>0.3888888888888889</v>
       </c>
@@ -4706,8 +5046,11 @@
       <c r="L114">
         <v>0.61370000000000002</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M114">
+        <v>0.60319999999999996</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>0.3923611111111111</v>
       </c>
@@ -4744,8 +5087,11 @@
       <c r="L115">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M115">
+        <v>0.68989999999999996</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>0.39583333333333331</v>
       </c>
@@ -4782,8 +5128,11 @@
       <c r="L116">
         <v>0.50549999999999995</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M116">
+        <v>0.78210000000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>0.39930555555555558</v>
       </c>
@@ -4820,8 +5169,11 @@
       <c r="L117">
         <v>0.51490000000000002</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M117">
+        <v>0.72250000000000003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>0.40277777777777779</v>
       </c>
@@ -4858,8 +5210,11 @@
       <c r="L118">
         <v>0.53410000000000002</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M118">
+        <v>0.72370000000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>0.40625</v>
       </c>
@@ -4896,8 +5251,11 @@
       <c r="L119">
         <v>0.47649999999999998</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M119">
+        <v>0.48949999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>0.40972222222222221</v>
       </c>
@@ -4934,8 +5292,11 @@
       <c r="L120">
         <v>0.72609999999999997</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M120">
+        <v>0.7873</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>0.41319444444444442</v>
       </c>
@@ -4972,8 +5333,11 @@
       <c r="L121">
         <v>0.68359999999999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M121">
+        <v>0.68559999999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -5010,8 +5374,11 @@
       <c r="L122">
         <v>0.64859999999999995</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M122">
+        <v>0.58789999999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>0.4201388888888889</v>
       </c>
@@ -5048,8 +5415,11 @@
       <c r="L123">
         <v>0.67420000000000002</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M123">
+        <v>0.79969999999999997</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>0.4236111111111111</v>
       </c>
@@ -5086,8 +5456,11 @@
       <c r="L124">
         <v>0.48299999999999998</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M124">
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>0.42708333333333331</v>
       </c>
@@ -5124,8 +5497,11 @@
       <c r="L125">
         <v>0.57669999999999999</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M125">
+        <v>0.57169999999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>0.43055555555555558</v>
       </c>
@@ -5162,8 +5538,11 @@
       <c r="L126">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M126">
+        <v>0.48630000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>0.43402777777777779</v>
       </c>
@@ -5200,8 +5579,11 @@
       <c r="L127">
         <v>0.50919999999999999</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M127">
+        <v>0.5413</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>0.4375</v>
       </c>
@@ -5238,8 +5620,11 @@
       <c r="L128">
         <v>0.50670000000000004</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M128">
+        <v>0.5887</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>0.44097222222222221</v>
       </c>
@@ -5276,8 +5661,11 @@
       <c r="L129">
         <v>0.68679999999999997</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M129">
+        <v>0.68759999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>0.44444444444444442</v>
       </c>
@@ -5314,8 +5702,11 @@
       <c r="L130">
         <v>0.59540000000000004</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M130">
+        <v>0.76959999999999995</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>0.44791666666666669</v>
       </c>
@@ -5352,8 +5743,11 @@
       <c r="L131">
         <v>0.78820000000000001</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M131">
+        <v>0.46139999999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>0.4513888888888889</v>
       </c>
@@ -5390,8 +5784,11 @@
       <c r="L132">
         <v>0.66510000000000002</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M132">
+        <v>0.71440000000000003</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>0.4548611111111111</v>
       </c>
@@ -5428,8 +5825,11 @@
       <c r="L133">
         <v>0.4758</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M133">
+        <v>0.6623</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -5466,8 +5866,11 @@
       <c r="L134">
         <v>0.76060000000000005</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M134">
+        <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>0.46180555555555558</v>
       </c>
@@ -5504,8 +5907,11 @@
       <c r="L135">
         <v>0.68210000000000004</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M135">
+        <v>0.44900000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>0.46527777777777779</v>
       </c>
@@ -5542,8 +5948,11 @@
       <c r="L136">
         <v>0.53069999999999995</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M136">
+        <v>0.80020000000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>0.46875</v>
       </c>
@@ -5580,8 +5989,11 @@
       <c r="L137">
         <v>0.56069999999999998</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M137">
+        <v>0.48430000000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>0.47222222222222221</v>
       </c>
@@ -5618,8 +6030,11 @@
       <c r="L138">
         <v>0.50470000000000004</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M138">
+        <v>0.47520000000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>0.47569444444444442</v>
       </c>
@@ -5656,8 +6071,11 @@
       <c r="L139">
         <v>0.76790000000000003</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M139">
+        <v>0.49619999999999997</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>0.47916666666666669</v>
       </c>
@@ -5694,8 +6112,11 @@
       <c r="L140">
         <v>0.64500000000000002</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M140">
+        <v>0.62739999999999996</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>0.4826388888888889</v>
       </c>
@@ -5732,8 +6153,11 @@
       <c r="L141">
         <v>0.73099999999999998</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M141">
+        <v>0.73729999999999996</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>0.4861111111111111</v>
       </c>
@@ -5770,8 +6194,11 @@
       <c r="L142">
         <v>0.54169999999999996</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M142">
+        <v>0.73240000000000005</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>0.48958333333333331</v>
       </c>
@@ -5808,8 +6235,11 @@
       <c r="L143">
         <v>0.53459999999999996</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M143">
+        <v>0.49430000000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>0.49305555555555558</v>
       </c>
@@ -5846,8 +6276,11 @@
       <c r="L144">
         <v>0.7258</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M144">
+        <v>0.47639999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>0.49652777777777779</v>
       </c>
@@ -5884,8 +6317,11 @@
       <c r="L145">
         <v>0.4456</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M145">
+        <v>0.71960000000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>0.5</v>
       </c>
@@ -5922,8 +6358,11 @@
       <c r="L146">
         <v>0.80379999999999996</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M146">
+        <v>0.50900000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>0.50347222222222221</v>
       </c>
@@ -5960,8 +6399,11 @@
       <c r="L147">
         <v>0.6119</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M147">
+        <v>0.54859999999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>0.50694444444444442</v>
       </c>
@@ -5998,8 +6440,11 @@
       <c r="L148">
         <v>0.63060000000000005</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M148">
+        <v>0.74370000000000003</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>0.51041666666666663</v>
       </c>
@@ -6036,8 +6481,11 @@
       <c r="L149">
         <v>0.78439999999999999</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M149">
+        <v>0.77969999999999995</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>0.51388888888888884</v>
       </c>
@@ -6074,8 +6522,11 @@
       <c r="L150">
         <v>0.61370000000000002</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M150">
+        <v>0.60319999999999996</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>0.51736111111111116</v>
       </c>
@@ -6112,8 +6563,11 @@
       <c r="L151">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M151">
+        <v>0.68989999999999996</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>0.52083333333333337</v>
       </c>
@@ -6150,8 +6604,11 @@
       <c r="L152">
         <v>0.50549999999999995</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M152">
+        <v>0.78210000000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>0.52430555555555558</v>
       </c>
@@ -6188,8 +6645,11 @@
       <c r="L153">
         <v>0.51490000000000002</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M153">
+        <v>0.72250000000000003</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>0.52777777777777779</v>
       </c>
@@ -6226,8 +6686,11 @@
       <c r="L154">
         <v>0.53410000000000002</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M154">
+        <v>0.72370000000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>0.53125</v>
       </c>
@@ -6264,8 +6727,11 @@
       <c r="L155">
         <v>0.47649999999999998</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M155">
+        <v>0.48949999999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>0.53472222222222221</v>
       </c>
@@ -6302,8 +6768,11 @@
       <c r="L156">
         <v>0.72609999999999997</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M156">
+        <v>0.7873</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>0.53819444444444442</v>
       </c>
@@ -6340,8 +6809,11 @@
       <c r="L157">
         <v>0.68359999999999999</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M157">
+        <v>0.68559999999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -6378,8 +6850,11 @@
       <c r="L158">
         <v>0.80220000000000002</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M158">
+        <v>0.58789999999999998</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>0.54513888888888884</v>
       </c>
@@ -6416,8 +6891,11 @@
       <c r="L159">
         <v>0.53869999999999996</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M159">
+        <v>0.79969999999999997</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>0.54861111111111116</v>
       </c>
@@ -6454,8 +6932,11 @@
       <c r="L160">
         <v>0.69530000000000003</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M160">
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>0.55208333333333337</v>
       </c>
@@ -6492,8 +6973,11 @@
       <c r="L161">
         <v>0.69399999999999995</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M161">
+        <v>0.57169999999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>0.55555555555555558</v>
       </c>
@@ -6530,8 +7014,11 @@
       <c r="L162">
         <v>0.67249999999999999</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M162">
+        <v>0.48630000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>0.55902777777777779</v>
       </c>
@@ -6568,8 +7055,11 @@
       <c r="L163">
         <v>0.66720000000000002</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M163">
+        <v>0.5413</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>0.5625</v>
       </c>
@@ -6606,8 +7096,11 @@
       <c r="L164">
         <v>0.60719999999999996</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M164">
+        <v>0.5887</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>0.56597222222222221</v>
       </c>
@@ -6644,8 +7137,11 @@
       <c r="L165">
         <v>0.6593</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M165">
+        <v>0.68759999999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>0.56944444444444442</v>
       </c>
@@ -6682,8 +7178,11 @@
       <c r="L166">
         <v>0.78610000000000002</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M166">
+        <v>0.76959999999999995</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>0.57291666666666663</v>
       </c>
@@ -6720,8 +7219,11 @@
       <c r="L167">
         <v>0.74580000000000002</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M167">
+        <v>0.46139999999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>0.57638888888888884</v>
       </c>
@@ -6758,8 +7260,11 @@
       <c r="L168">
         <v>0.58950000000000002</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M168">
+        <v>0.71440000000000003</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>0.57986111111111116</v>
       </c>
@@ -6796,8 +7301,11 @@
       <c r="L169">
         <v>0.80220000000000002</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M169">
+        <v>0.6623</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -6834,8 +7342,11 @@
       <c r="L170">
         <v>0.61170000000000002</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M170">
+        <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>0.58680555555555558</v>
       </c>
@@ -6872,8 +7383,11 @@
       <c r="L171">
         <v>0.4632</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M171">
+        <v>0.44900000000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>0.59027777777777779</v>
       </c>
@@ -6910,8 +7424,11 @@
       <c r="L172">
         <v>0.55679999999999996</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M172">
+        <v>0.80020000000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>0.59375</v>
       </c>
@@ -6948,8 +7465,11 @@
       <c r="L173">
         <v>0.47070000000000001</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M173">
+        <v>0.48430000000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>0.59722222222222221</v>
       </c>
@@ -6986,8 +7506,11 @@
       <c r="L174">
         <v>0.73899999999999999</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M174">
+        <v>0.47520000000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>0.60069444444444442</v>
       </c>
@@ -7024,8 +7547,11 @@
       <c r="L175">
         <v>0.61980000000000002</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M175">
+        <v>0.49619999999999997</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>0.60416666666666663</v>
       </c>
@@ -7062,8 +7588,11 @@
       <c r="L176">
         <v>0.71850000000000003</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M176">
+        <v>0.62739999999999996</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>0.60763888888888884</v>
       </c>
@@ -7100,8 +7629,11 @@
       <c r="L177">
         <v>0.65780000000000005</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M177">
+        <v>0.73729999999999996</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>0.61111111111111116</v>
       </c>
@@ -7138,8 +7670,11 @@
       <c r="L178">
         <v>0.5776</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M178">
+        <v>0.73240000000000005</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>0.61458333333333337</v>
       </c>
@@ -7176,8 +7711,11 @@
       <c r="L179">
         <v>0.5786</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M179">
+        <v>0.49430000000000002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>0.61805555555555558</v>
       </c>
@@ -7214,8 +7752,11 @@
       <c r="L180">
         <v>0.60309999999999997</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M180">
+        <v>0.47639999999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>0.62152777777777779</v>
       </c>
@@ -7252,8 +7793,11 @@
       <c r="L181">
         <v>0.67149999999999999</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M181">
+        <v>0.71960000000000002</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>0.625</v>
       </c>
@@ -7290,8 +7834,11 @@
       <c r="L182">
         <v>0.60309999999999997</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M182">
+        <v>0.50900000000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>0.62847222222222221</v>
       </c>
@@ -7328,8 +7875,11 @@
       <c r="L183">
         <v>0.67849999999999999</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M183">
+        <v>0.54859999999999998</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>0.63194444444444442</v>
       </c>
@@ -7366,8 +7916,11 @@
       <c r="L184">
         <v>0.81159999999999999</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M184">
+        <v>0.74370000000000003</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>0.63541666666666663</v>
       </c>
@@ -7404,8 +7957,11 @@
       <c r="L185">
         <v>0.45329999999999998</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M185">
+        <v>0.77969999999999995</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>0.63888888888888884</v>
       </c>
@@ -7442,8 +7998,11 @@
       <c r="L186">
         <v>0.62250000000000005</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M186">
+        <v>0.60319999999999996</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>0.64236111111111116</v>
       </c>
@@ -7480,8 +8039,11 @@
       <c r="L187">
         <v>0.50270000000000004</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M187">
+        <v>0.68989999999999996</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>0.64583333333333337</v>
       </c>
@@ -7518,8 +8080,11 @@
       <c r="L188">
         <v>0.64929999999999999</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M188">
+        <v>0.78210000000000002</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>0.64930555555555558</v>
       </c>
@@ -7556,8 +8121,11 @@
       <c r="L189">
         <v>0.74660000000000004</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M189">
+        <v>0.72250000000000003</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>0.65277777777777779</v>
       </c>
@@ -7594,8 +8162,11 @@
       <c r="L190">
         <v>0.48230000000000001</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M190">
+        <v>0.72370000000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>0.65625</v>
       </c>
@@ -7632,8 +8203,11 @@
       <c r="L191">
         <v>0.59319999999999995</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M191">
+        <v>0.48949999999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>0.65972222222222221</v>
       </c>
@@ -7670,8 +8244,11 @@
       <c r="L192">
         <v>0.71540000000000004</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M192">
+        <v>0.7873</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>0.66319444444444442</v>
       </c>
@@ -7708,8 +8285,11 @@
       <c r="L193">
         <v>0.80220000000000002</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M193">
+        <v>0.68559999999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -7746,8 +8326,11 @@
       <c r="L194">
         <v>0.53869999999999996</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M194">
+        <v>0.58789999999999998</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>0.67013888888888884</v>
       </c>
@@ -7784,8 +8367,11 @@
       <c r="L195">
         <v>0.69530000000000003</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M195">
+        <v>0.79969999999999997</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>0.67361111111111116</v>
       </c>
@@ -7822,8 +8408,11 @@
       <c r="L196">
         <v>0.69399999999999995</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M196">
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>0.67708333333333337</v>
       </c>
@@ -7860,8 +8449,11 @@
       <c r="L197">
         <v>0.67249999999999999</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M197">
+        <v>0.57169999999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>0.68055555555555558</v>
       </c>
@@ -7898,8 +8490,11 @@
       <c r="L198">
         <v>0.66720000000000002</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M198">
+        <v>0.48630000000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>0.68402777777777779</v>
       </c>
@@ -7936,8 +8531,11 @@
       <c r="L199">
         <v>0.60719999999999996</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M199">
+        <v>0.5413</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>0.6875</v>
       </c>
@@ -7974,8 +8572,11 @@
       <c r="L200">
         <v>0.6593</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M200">
+        <v>0.5887</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>0.69097222222222221</v>
       </c>
@@ -8012,8 +8613,11 @@
       <c r="L201">
         <v>0.78610000000000002</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M201">
+        <v>0.68759999999999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>0.69444444444444442</v>
       </c>
@@ -8050,8 +8654,11 @@
       <c r="L202">
         <v>0.74580000000000002</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M202">
+        <v>0.76959999999999995</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>0.69791666666666663</v>
       </c>
@@ -8088,8 +8695,11 @@
       <c r="L203">
         <v>0.58950000000000002</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M203">
+        <v>0.46139999999999998</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>0.70138888888888884</v>
       </c>
@@ -8126,8 +8736,11 @@
       <c r="L204">
         <v>0.80220000000000002</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M204">
+        <v>0.71440000000000003</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>0.70486111111111116</v>
       </c>
@@ -8164,8 +8777,11 @@
       <c r="L205">
         <v>0.61170000000000002</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M205">
+        <v>0.6623</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -8202,8 +8818,11 @@
       <c r="L206">
         <v>0.4632</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M206">
+        <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>0.71180555555555558</v>
       </c>
@@ -8240,8 +8859,11 @@
       <c r="L207">
         <v>0.55679999999999996</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M207">
+        <v>0.44900000000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>0.71527777777777779</v>
       </c>
@@ -8278,8 +8900,11 @@
       <c r="L208">
         <v>0.47070000000000001</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M208">
+        <v>0.80020000000000002</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>0.71875</v>
       </c>
@@ -8316,8 +8941,11 @@
       <c r="L209">
         <v>0.73899999999999999</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M209">
+        <v>0.48430000000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>0.72222222222222221</v>
       </c>
@@ -8354,8 +8982,11 @@
       <c r="L210">
         <v>0.61980000000000002</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M210">
+        <v>0.47520000000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>0.72569444444444442</v>
       </c>
@@ -8392,8 +9023,11 @@
       <c r="L211">
         <v>0.71850000000000003</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M211">
+        <v>0.49619999999999997</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>0.72916666666666663</v>
       </c>
@@ -8430,8 +9064,11 @@
       <c r="L212">
         <v>0.65780000000000005</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M212">
+        <v>0.62739999999999996</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>0.73263888888888884</v>
       </c>
@@ -8468,8 +9105,11 @@
       <c r="L213">
         <v>0.5776</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M213">
+        <v>0.73729999999999996</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>0.73611111111111116</v>
       </c>
@@ -8506,8 +9146,11 @@
       <c r="L214">
         <v>0.5786</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M214">
+        <v>0.73240000000000005</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>0.73958333333333337</v>
       </c>
@@ -8544,8 +9187,11 @@
       <c r="L215">
         <v>0.60309999999999997</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M215">
+        <v>0.49430000000000002</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>0.74305555555555558</v>
       </c>
@@ -8582,8 +9228,11 @@
       <c r="L216">
         <v>0.67149999999999999</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M216">
+        <v>0.47639999999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>0.74652777777777779</v>
       </c>
@@ -8620,8 +9269,11 @@
       <c r="L217">
         <v>0.60309999999999997</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M217">
+        <v>0.71960000000000002</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>0.75</v>
       </c>
@@ -8658,8 +9310,11 @@
       <c r="L218">
         <v>0.67849999999999999</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M218">
+        <v>0.50900000000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>0.75347222222222221</v>
       </c>
@@ -8696,8 +9351,11 @@
       <c r="L219">
         <v>0.81159999999999999</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M219">
+        <v>0.54859999999999998</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>0.75694444444444442</v>
       </c>
@@ -8734,8 +9392,11 @@
       <c r="L220">
         <v>0.45329999999999998</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M220">
+        <v>0.74370000000000003</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>0.76041666666666663</v>
       </c>
@@ -8772,8 +9433,11 @@
       <c r="L221">
         <v>0.62250000000000005</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M221">
+        <v>0.77969999999999995</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>0.76388888888888884</v>
       </c>
@@ -8810,8 +9474,11 @@
       <c r="L222">
         <v>0.50270000000000004</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M222">
+        <v>0.60319999999999996</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>0.76736111111111116</v>
       </c>
@@ -8848,8 +9515,11 @@
       <c r="L223">
         <v>0.64929999999999999</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M223">
+        <v>0.68989999999999996</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>0.77083333333333337</v>
       </c>
@@ -8886,8 +9556,11 @@
       <c r="L224">
         <v>0.74660000000000004</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M224">
+        <v>0.78210000000000002</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>0.77430555555555558</v>
       </c>
@@ -8924,8 +9597,11 @@
       <c r="L225">
         <v>0.48230000000000001</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M225">
+        <v>0.72250000000000003</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>0.77777777777777779</v>
       </c>
@@ -8962,8 +9638,11 @@
       <c r="L226">
         <v>0.59319999999999995</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M226">
+        <v>0.72370000000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>0.78125</v>
       </c>
@@ -9000,8 +9679,11 @@
       <c r="L227">
         <v>0.71540000000000004</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M227">
+        <v>0.56869999999999998</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>0.78472222222222221</v>
       </c>
@@ -9038,8 +9720,11 @@
       <c r="L228">
         <v>0.80220000000000002</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M228">
+        <v>0.61480000000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>0.78819444444444442</v>
       </c>
@@ -9076,8 +9761,11 @@
       <c r="L229">
         <v>0.53869999999999996</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M229">
+        <v>0.68920000000000003</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -9114,8 +9802,11 @@
       <c r="L230">
         <v>0.69530000000000003</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M230">
+        <v>0.60780000000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>0.79513888888888884</v>
       </c>
@@ -9152,8 +9843,11 @@
       <c r="L231">
         <v>0.69399999999999995</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M231">
+        <v>0.7571</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>0.79861111111111116</v>
       </c>
@@ -9190,8 +9884,11 @@
       <c r="L232">
         <v>0.67249999999999999</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M232">
+        <v>0.60040000000000004</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>0.80208333333333337</v>
       </c>
@@ -9228,8 +9925,11 @@
       <c r="L233">
         <v>0.66720000000000002</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M233">
+        <v>0.50349999999999995</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>0.80555555555555558</v>
       </c>
@@ -9266,8 +9966,11 @@
       <c r="L234">
         <v>0.60719999999999996</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M234">
+        <v>0.68989999999999996</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>0.80902777777777779</v>
       </c>
@@ -9304,8 +10007,11 @@
       <c r="L235">
         <v>0.6593</v>
       </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M235">
+        <v>0.75080000000000002</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>0.8125</v>
       </c>
@@ -9342,8 +10048,11 @@
       <c r="L236">
         <v>0.78610000000000002</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M236">
+        <v>0.50739999999999996</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>0.81597222222222221</v>
       </c>
@@ -9380,8 +10089,11 @@
       <c r="L237">
         <v>0.74580000000000002</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M237">
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>0.81944444444444442</v>
       </c>
@@ -9418,8 +10130,11 @@
       <c r="L238">
         <v>0.58950000000000002</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M238">
+        <v>0.47020000000000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -9456,8 +10171,11 @@
       <c r="L239">
         <v>0.80220000000000002</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M239">
+        <v>0.71160000000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>0.82638888888888884</v>
       </c>
@@ -9494,8 +10212,11 @@
       <c r="L240">
         <v>0.61170000000000002</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M240">
+        <v>0.79679999999999995</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>0.82986111111111116</v>
       </c>
@@ -9532,8 +10253,11 @@
       <c r="L241">
         <v>0.4632</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M241">
+        <v>0.76149999999999995</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -9570,8 +10294,11 @@
       <c r="L242">
         <v>0.55679999999999996</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M242">
+        <v>0.6855</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>0.83680555555555558</v>
       </c>
@@ -9608,8 +10335,11 @@
       <c r="L243">
         <v>0.47070000000000001</v>
       </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M243">
+        <v>0.72240000000000004</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>0.84027777777777779</v>
       </c>
@@ -9646,8 +10376,11 @@
       <c r="L244">
         <v>0.73899999999999999</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M244">
+        <v>0.47060000000000002</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>0.84375</v>
       </c>
@@ -9684,8 +10417,11 @@
       <c r="L245">
         <v>0.61980000000000002</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M245">
+        <v>0.70679999999999998</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>0.84722222222222221</v>
       </c>
@@ -9722,8 +10458,11 @@
       <c r="L246">
         <v>0.71850000000000003</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M246">
+        <v>0.54259999999999997</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>0.85069444444444442</v>
       </c>
@@ -9760,8 +10499,11 @@
       <c r="L247">
         <v>0.65780000000000005</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M247">
+        <v>0.73550000000000004</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>0.85416666666666663</v>
       </c>
@@ -9798,8 +10540,11 @@
       <c r="L248">
         <v>0.5776</v>
       </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M248">
+        <v>0.71750000000000003</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>0.85763888888888884</v>
       </c>
@@ -9836,8 +10581,11 @@
       <c r="L249">
         <v>0.5786</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M249">
+        <v>0.80830000000000002</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>0.86111111111111116</v>
       </c>
@@ -9874,8 +10622,11 @@
       <c r="L250">
         <v>0.60309999999999997</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M250">
+        <v>0.44550000000000001</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>0.86458333333333337</v>
       </c>
@@ -9912,8 +10663,11 @@
       <c r="L251">
         <v>0.67149999999999999</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M251">
+        <v>0.6331</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>0.86805555555555558</v>
       </c>
@@ -9950,8 +10704,11 @@
       <c r="L252">
         <v>0.60309999999999997</v>
       </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M252">
+        <v>0.67689999999999995</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>0.87152777777777779</v>
       </c>
@@ -9988,8 +10745,11 @@
       <c r="L253">
         <v>0.67849999999999999</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M253">
+        <v>0.54239999999999999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>0.875</v>
       </c>
@@ -10026,8 +10786,11 @@
       <c r="L254">
         <v>0.81159999999999999</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M254">
+        <v>0.78549999999999998</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>0.87847222222222221</v>
       </c>
@@ -10064,8 +10827,11 @@
       <c r="L255">
         <v>0.45329999999999998</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M255">
+        <v>0.49840000000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>0.88194444444444442</v>
       </c>
@@ -10102,8 +10868,11 @@
       <c r="L256">
         <v>0.62250000000000005</v>
       </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M256">
+        <v>0.66910000000000003</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>0.88541666666666663</v>
       </c>
@@ -10140,8 +10909,11 @@
       <c r="L257">
         <v>0.50270000000000004</v>
       </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M257">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>0.88888888888888884</v>
       </c>
@@ -10178,8 +10950,11 @@
       <c r="L258">
         <v>0.64929999999999999</v>
       </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M258">
+        <v>0.45669999999999999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>0.89236111111111116</v>
       </c>
@@ -10216,8 +10991,11 @@
       <c r="L259">
         <v>0.74660000000000004</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M259">
+        <v>0.73839999999999995</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>0.89583333333333337</v>
       </c>
@@ -10254,8 +11032,11 @@
       <c r="L260">
         <v>0.48230000000000001</v>
       </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M260">
+        <v>0.78029999999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>0.89930555555555558</v>
       </c>
@@ -10292,8 +11073,11 @@
       <c r="L261">
         <v>0.59319999999999995</v>
       </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M261">
+        <v>0.46560000000000001</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>0.90277777777777779</v>
       </c>
@@ -10330,8 +11114,11 @@
       <c r="L262">
         <v>0.71540000000000004</v>
       </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M262">
+        <v>0.56869999999999998</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>0.90625</v>
       </c>
@@ -10368,8 +11155,11 @@
       <c r="L263">
         <v>0.80220000000000002</v>
       </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M263">
+        <v>0.61480000000000001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>0.90972222222222221</v>
       </c>
@@ -10406,8 +11196,11 @@
       <c r="L264">
         <v>0.53869999999999996</v>
       </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M264">
+        <v>0.68920000000000003</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>0.91319444444444442</v>
       </c>
@@ -10444,8 +11237,11 @@
       <c r="L265">
         <v>0.69530000000000003</v>
       </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M265">
+        <v>0.60780000000000001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -10482,8 +11278,11 @@
       <c r="L266">
         <v>0.69399999999999995</v>
       </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M266">
+        <v>0.7571</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>0.92013888888888884</v>
       </c>
@@ -10520,8 +11319,11 @@
       <c r="L267">
         <v>0.67249999999999999</v>
       </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M267">
+        <v>0.60040000000000004</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>0.92361111111111116</v>
       </c>
@@ -10558,8 +11360,11 @@
       <c r="L268">
         <v>0.66720000000000002</v>
       </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M268">
+        <v>0.50349999999999995</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>0.92708333333333337</v>
       </c>
@@ -10596,8 +11401,11 @@
       <c r="L269">
         <v>0.60719999999999996</v>
       </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M269">
+        <v>0.68989999999999996</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>0.93055555555555558</v>
       </c>
@@ -10634,8 +11442,11 @@
       <c r="L270">
         <v>0.6593</v>
       </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M270">
+        <v>0.75080000000000002</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>0.93402777777777779</v>
       </c>
@@ -10672,8 +11483,11 @@
       <c r="L271">
         <v>0.78610000000000002</v>
       </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M271">
+        <v>0.50739999999999996</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>0.9375</v>
       </c>
@@ -10710,8 +11524,11 @@
       <c r="L272">
         <v>0.74580000000000002</v>
       </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M272">
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>0.94097222222222221</v>
       </c>
@@ -10748,8 +11565,11 @@
       <c r="L273">
         <v>0.58950000000000002</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M273">
+        <v>0.47020000000000001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>0.94444444444444442</v>
       </c>
@@ -10786,8 +11606,11 @@
       <c r="L274">
         <v>0.80220000000000002</v>
       </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M274">
+        <v>0.71160000000000001</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>0.94791666666666663</v>
       </c>
@@ -10824,8 +11647,11 @@
       <c r="L275">
         <v>0.61170000000000002</v>
       </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M275">
+        <v>0.79679999999999995</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>0.95138888888888884</v>
       </c>
@@ -10862,8 +11688,11 @@
       <c r="L276">
         <v>0.4632</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M276">
+        <v>0.76149999999999995</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>0.95486111111111116</v>
       </c>
@@ -10900,8 +11729,11 @@
       <c r="L277">
         <v>0.55679999999999996</v>
       </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M277">
+        <v>0.6855</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>0.95833333333333337</v>
       </c>
@@ -10938,8 +11770,11 @@
       <c r="L278">
         <v>0.47070000000000001</v>
       </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M278">
+        <v>0.72240000000000004</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>0.96180555555555558</v>
       </c>
@@ -10976,8 +11811,11 @@
       <c r="L279">
         <v>0.73899999999999999</v>
       </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M279">
+        <v>0.47060000000000002</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>0.96527777777777779</v>
       </c>
@@ -11014,8 +11852,11 @@
       <c r="L280">
         <v>0.61980000000000002</v>
       </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M280">
+        <v>0.70679999999999998</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>0.96875</v>
       </c>
@@ -11052,8 +11893,11 @@
       <c r="L281">
         <v>0.71850000000000003</v>
       </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M281">
+        <v>0.54259999999999997</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>0.97222222222222221</v>
       </c>
@@ -11090,8 +11934,11 @@
       <c r="L282">
         <v>0.65780000000000005</v>
       </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M282">
+        <v>0.73550000000000004</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>0.97569444444444442</v>
       </c>
@@ -11128,8 +11975,11 @@
       <c r="L283">
         <v>0.5776</v>
       </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M283">
+        <v>0.71750000000000003</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>0.97916666666666663</v>
       </c>
@@ -11166,8 +12016,11 @@
       <c r="L284">
         <v>0.5786</v>
       </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M284">
+        <v>0.80830000000000002</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>0.98263888888888884</v>
       </c>
@@ -11204,8 +12057,11 @@
       <c r="L285">
         <v>0.60309999999999997</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M285">
+        <v>0.44550000000000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>0.98611111111111116</v>
       </c>
@@ -11242,8 +12098,11 @@
       <c r="L286">
         <v>0.67149999999999999</v>
       </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M286">
+        <v>0.6331</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>0.98958333333333337</v>
       </c>
@@ -11280,8 +12139,11 @@
       <c r="L287">
         <v>0.59319999999999995</v>
       </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M287">
+        <v>0.46560000000000001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>0.99305555555555558</v>
       </c>
@@ -11318,8 +12180,11 @@
       <c r="L288">
         <v>0.71540000000000004</v>
       </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M288">
+        <v>0.56869999999999998</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>0.99652777777777779</v>
       </c>
@@ -11355,6 +12220,9 @@
       </c>
       <c r="L289">
         <v>0.80220000000000002</v>
+      </c>
+      <c r="M289">
+        <v>0.61480000000000001</v>
       </c>
     </row>
   </sheetData>
